--- a/Plant_Images/Day11_Evening/Segmentation_Report_Day11Evening.xlsx
+++ b/Plant_Images/Day11_Evening/Segmentation_Report_Day11Evening.xlsx
@@ -468,7 +468,7 @@
         <v>3209</v>
       </c>
       <c r="D2" t="n">
-        <v>16.05</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>1212</v>
       </c>
       <c r="D3" t="n">
-        <v>6.06</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>1878</v>
       </c>
       <c r="D4" t="n">
-        <v>9.390000000000001</v>
+        <v>8.26</v>
       </c>
     </row>
   </sheetData>
